--- a/Bank/中医内科学/心/Bank_心悸.xlsx
+++ b/Bank/中医内科学/心/Bank_心悸.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliot/Desktop/wall/Bank/中医内科学/心/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="122">
   <si>
     <t>最早记载心律不齐是疾病表现的是</t>
   </si>
@@ -379,12 +390,18 @@
   </si>
   <si>
     <t>诊断：心悸。辨证：阴虚火旺。分析：患者以心中动悸不适，并伴有脉律不齐为主症，故诊为心悸。同时伴见的心烦失眠，五心烦热，口干，舌红少津，脉细数等症，均系阴虚火旺之征。分析可能由长期学习紧张及劳累伤阴所致。治法：滋阴清火，养心安神。方药：黄连阿胶汤加减。黄连6g黄苓12g阿胶12g芍药12g生地12g酸枣仁12g生牡蛎15g</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -699,12 +716,12 @@
   <dimension ref="B1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -720,6 +737,9 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1">
+        <v>39</v>
+      </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
@@ -730,7 +750,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -746,6 +766,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
+      <c r="G2">
+        <v>39</v>
+      </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
@@ -756,7 +779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -772,6 +795,9 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
+      <c r="G3">
+        <v>39</v>
+      </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
@@ -782,7 +808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -798,6 +824,9 @@
       <c r="F4" t="s">
         <v>21</v>
       </c>
+      <c r="G4">
+        <v>39</v>
+      </c>
       <c r="H4" t="s">
         <v>5</v>
       </c>
@@ -808,7 +837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -824,6 +853,9 @@
       <c r="F5" t="s">
         <v>27</v>
       </c>
+      <c r="G5">
+        <v>39</v>
+      </c>
       <c r="H5" t="s">
         <v>5</v>
       </c>
@@ -834,7 +866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>28</v>
       </c>
@@ -850,6 +882,9 @@
       <c r="F6" t="s">
         <v>32</v>
       </c>
+      <c r="G6">
+        <v>39</v>
+      </c>
       <c r="H6" t="s">
         <v>5</v>
       </c>
@@ -860,7 +895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>33</v>
       </c>
@@ -876,6 +911,9 @@
       <c r="F7" t="s">
         <v>37</v>
       </c>
+      <c r="G7">
+        <v>39</v>
+      </c>
       <c r="H7" t="s">
         <v>5</v>
       </c>
@@ -886,7 +924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -902,6 +940,9 @@
       <c r="F8" t="s">
         <v>39</v>
       </c>
+      <c r="G8">
+        <v>39</v>
+      </c>
       <c r="H8" t="s">
         <v>5</v>
       </c>
@@ -912,7 +953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>40</v>
       </c>
@@ -928,6 +969,9 @@
       <c r="F9" t="s">
         <v>44</v>
       </c>
+      <c r="G9">
+        <v>39</v>
+      </c>
       <c r="H9" t="s">
         <v>5</v>
       </c>
@@ -938,7 +982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>45</v>
       </c>
@@ -954,6 +998,9 @@
       <c r="F10" t="s">
         <v>49</v>
       </c>
+      <c r="G10">
+        <v>39</v>
+      </c>
       <c r="H10" t="s">
         <v>5</v>
       </c>
@@ -964,7 +1011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>50</v>
       </c>
@@ -980,6 +1027,9 @@
       <c r="F11" t="s">
         <v>54</v>
       </c>
+      <c r="G11">
+        <v>39</v>
+      </c>
       <c r="H11" t="s">
         <v>5</v>
       </c>
@@ -990,7 +1040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>55</v>
       </c>
@@ -1006,6 +1056,9 @@
       <c r="F12" t="s">
         <v>59</v>
       </c>
+      <c r="G12">
+        <v>39</v>
+      </c>
       <c r="H12" t="s">
         <v>5</v>
       </c>
@@ -1016,7 +1069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>60</v>
       </c>
@@ -1032,6 +1085,9 @@
       <c r="F13" t="s">
         <v>21</v>
       </c>
+      <c r="G13">
+        <v>39</v>
+      </c>
       <c r="H13" t="s">
         <v>5</v>
       </c>
@@ -1042,7 +1098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>63</v>
       </c>
@@ -1058,6 +1114,9 @@
       <c r="F14" t="s">
         <v>64</v>
       </c>
+      <c r="G14">
+        <v>39</v>
+      </c>
       <c r="H14" t="s">
         <v>5</v>
       </c>
@@ -1068,7 +1127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>65</v>
       </c>
@@ -1084,6 +1143,9 @@
       <c r="F15" t="s">
         <v>68</v>
       </c>
+      <c r="G15">
+        <v>39</v>
+      </c>
       <c r="H15" t="s">
         <v>5</v>
       </c>
@@ -1094,7 +1156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>69</v>
       </c>
@@ -1110,6 +1172,9 @@
       <c r="F16" t="s">
         <v>73</v>
       </c>
+      <c r="G16">
+        <v>39</v>
+      </c>
       <c r="H16" t="s">
         <v>75</v>
       </c>
@@ -1123,7 +1188,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>76</v>
       </c>
@@ -1139,6 +1204,9 @@
       <c r="F17" t="s">
         <v>80</v>
       </c>
+      <c r="G17">
+        <v>39</v>
+      </c>
       <c r="H17" t="s">
         <v>75</v>
       </c>
@@ -1152,7 +1220,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>82</v>
       </c>
@@ -1168,6 +1236,9 @@
       <c r="F18" t="s">
         <v>86</v>
       </c>
+      <c r="G18">
+        <v>39</v>
+      </c>
       <c r="H18" t="s">
         <v>75</v>
       </c>
@@ -1181,7 +1252,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>88</v>
       </c>
@@ -1197,6 +1268,9 @@
       <c r="F19" t="s">
         <v>89</v>
       </c>
+      <c r="G19">
+        <v>39</v>
+      </c>
       <c r="H19" t="s">
         <v>75</v>
       </c>
@@ -1210,7 +1284,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>92</v>
       </c>
@@ -1226,6 +1300,9 @@
       <c r="F20" t="s">
         <v>96</v>
       </c>
+      <c r="G20">
+        <v>39</v>
+      </c>
       <c r="H20" t="s">
         <v>75</v>
       </c>
@@ -1239,12 +1316,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>98</v>
       </c>
+      <c r="G21">
+        <v>39</v>
+      </c>
       <c r="H21" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1253,12 +1333,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>87</v>
       </c>
+      <c r="G22">
+        <v>39</v>
+      </c>
       <c r="H22" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1267,10 +1350,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>100</v>
       </c>
+      <c r="G23">
+        <v>39</v>
+      </c>
       <c r="H23" t="s">
         <v>99</v>
       </c>
@@ -1281,10 +1367,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>101</v>
       </c>
+      <c r="G24">
+        <v>39</v>
+      </c>
       <c r="H24" t="s">
         <v>99</v>
       </c>
@@ -1295,10 +1384,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>102</v>
       </c>
+      <c r="G25">
+        <v>39</v>
+      </c>
       <c r="H25" t="s">
         <v>99</v>
       </c>
@@ -1309,10 +1401,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>103</v>
       </c>
+      <c r="G26">
+        <v>39</v>
+      </c>
       <c r="H26" t="s">
         <v>99</v>
       </c>
@@ -1323,10 +1418,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>104</v>
       </c>
+      <c r="G27">
+        <v>39</v>
+      </c>
       <c r="H27" t="s">
         <v>99</v>
       </c>
@@ -1337,10 +1435,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>105</v>
       </c>
+      <c r="G28">
+        <v>39</v>
+      </c>
       <c r="H28" t="s">
         <v>99</v>
       </c>
@@ -1351,12 +1452,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>110</v>
       </c>
+      <c r="G29">
+        <v>39</v>
+      </c>
       <c r="H29" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="J29">
         <v>1</v>
